--- a/programs/fpu-maclaurin-program-sin-pi-over-4.xlsx
+++ b/programs/fpu-maclaurin-program-sin-pi-over-4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/vp920_ic_ac_uk/Documents/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{763AD557-4BF9-42D1-98B9-D006741BA704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5FEF8565-C5A3-4577-AA7B-96A123CCF81D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEFBCD-4BFD-4627-AFE8-931C24E70B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>Hex</t>
   </si>
@@ -183,18 +183,6 @@
     <t>STR R3, [R0], #1</t>
   </si>
   <si>
-    <t>0x012</t>
-  </si>
-  <si>
-    <t>0x013</t>
-  </si>
-  <si>
-    <t>0x014</t>
-  </si>
-  <si>
-    <t>0x015</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -207,9 +195,6 @@
     <t>1/5!</t>
   </si>
   <si>
-    <t>1/7!</t>
-  </si>
-  <si>
     <t>R3 = R3 + R2</t>
   </si>
   <si>
@@ -243,99 +228,21 @@
     <t>R3 = R3 - R2</t>
   </si>
   <si>
-    <t>0x016</t>
-  </si>
-  <si>
-    <t>0x017</t>
-  </si>
-  <si>
-    <t>0x018</t>
-  </si>
-  <si>
-    <t>0x019</t>
-  </si>
-  <si>
-    <t>0x01A</t>
-  </si>
-  <si>
     <t>STP</t>
   </si>
   <si>
-    <t>0x01B</t>
-  </si>
-  <si>
-    <t>0x01C</t>
-  </si>
-  <si>
-    <t>0x01D</t>
-  </si>
-  <si>
-    <t>0x01E</t>
-  </si>
-  <si>
-    <t>0x01F</t>
-  </si>
-  <si>
-    <t>0x020</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>0x021</t>
-  </si>
-  <si>
-    <t>0x022</t>
-  </si>
-  <si>
-    <t>0x023</t>
-  </si>
-  <si>
-    <t>0x024</t>
-  </si>
-  <si>
-    <t>0x025</t>
-  </si>
-  <si>
     <t>final result</t>
   </si>
   <si>
     <t>partial result</t>
   </si>
   <si>
-    <t>should be 1</t>
-  </si>
-  <si>
-    <t>MOV R0 = 2 ROR #12</t>
-  </si>
-  <si>
-    <t>0x6e48</t>
-  </si>
-  <si>
-    <t>result from ISSIE</t>
-  </si>
-  <si>
-    <t>calculate the partial resutl</t>
-  </si>
-  <si>
     <t>Output from ISSIE</t>
   </si>
   <si>
-    <t>0x3194</t>
-  </si>
-  <si>
-    <t>Value calculated by Matlab (different precission because the decimal multiplication is used)</t>
-  </si>
-  <si>
     <t>Decimal from ISSIE</t>
   </si>
   <si>
-    <t>Multiplication using the shift (the same way as it is done in the hardware)</t>
-  </si>
-  <si>
-    <t>Multiplication done with hand</t>
-  </si>
-  <si>
     <t>0x3E48</t>
   </si>
   <si>
@@ -360,9 +267,6 @@
     <t>operation</t>
   </si>
   <si>
-    <t>not enough of precission</t>
-  </si>
-  <si>
     <t>0x3155</t>
   </si>
   <si>
@@ -379,6 +283,27 @@
   </si>
   <si>
     <t>0x3BF5</t>
+  </si>
+  <si>
+    <t>should be 0.70710678118</t>
+  </si>
+  <si>
+    <t>0x39a7</t>
+  </si>
+  <si>
+    <t>MOV R0 = 0 ROR #0</t>
+  </si>
+  <si>
+    <t>Program memory</t>
+  </si>
+  <si>
+    <t>Data memory</t>
+  </si>
+  <si>
+    <t>39A7</t>
+  </si>
+  <si>
+    <t>calculate the partial result</t>
   </si>
 </sst>
 </file>
@@ -773,10 +698,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E17FB6-AC76-4C3E-BEFA-6AB3607784FD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,93 +716,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C1">
+      <c r="A1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C2">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>13</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="L1">
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="M1">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="N1">
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="O1">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="P1">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -892,128 +804,132 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="N3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>18</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="O4" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:25" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:25" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -1028,312 +944,268 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="str">
-        <f>DEC2HEX(C8*2^15 + D8*2^14 + E8*2^13 + F8*2^12 + G8*2^11 + H8*2^10 + I8*2^9 + J8*2^8 + K8*2^7 + L8*2^6 + M8*2^5 + N8*2^4 + O8 * 2 ^ 3 + P8  * 2^2 + Q8 * 2 + R8)</f>
-        <v>C2C2</v>
-      </c>
-      <c r="T8" t="s">
-        <v>60</v>
-      </c>
+      <c r="K7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:25" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3" t="str">
-        <f t="shared" ref="S9:S10" si="0">DEC2HEX(C9*2^15 + D9*2^14 + E9*2^13 + F9*2^12 + G9*2^11 + H9*2^10 + I9*2^9 + J9*2^8 + K9*2^7 + L9*2^6 + M9*2^5 + N9*2^4 + O9 * 2 ^ 3 + P9  * 2^2 + Q9 * 2 + R9)</f>
-        <v>744</v>
+        <f>DEC2HEX(C9*2^15 + D9*2^14 + E9*2^13 + F9*2^12 + G9*2^11 + H9*2^10 + I9*2^9 + J9*2^8 + K9*2^7 + L9*2^6 + M9*2^5 + N9*2^4 + O9 * 2 ^ 3 + P9  * 2^2 + Q9 * 2 + R9)</f>
+        <v>C200</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f t="shared" ref="S10:S11" si="0">DEC2HEX(C10*2^15 + D10*2^14 + E10*2^13 + F10*2^12 + G10*2^11 + H10*2^10 + I10*2^9 + J10*2^8 + K10*2^7 + L10*2^6 + M10*2^5 + N10*2^4 + O10 * 2 ^ 3 + P10  * 2^2 + Q10 * 2 + R10)</f>
+        <v>744</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3" t="str">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CC01</v>
       </c>
-      <c r="T10" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10">
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11">
         <v>1.5703125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3" t="str">
-        <f t="shared" ref="S11:S18" si="1">DEC2HEX(C11*2^15 + D11*2^14 + E11*2^13 + F11*2^12 + G11*2^11 + H11*2^10 + I11*2^9 + J11*2^8 + K11*2^7 + L11*2^6 + M11*2^5 + N11*2^4 + O11 * 2 ^ 3 + P11  * 2^2 + Q11 * 2 + R11)</f>
-        <v>B44</v>
-      </c>
-      <c r="T11" t="s">
-        <v>63</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="V11">
-        <v>0.1666259765625</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1345,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1357,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1375,37 +1247,34 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1A01</v>
+        <f t="shared" ref="S12:S18" si="1">DEC2HEX(C12*2^15 + D12*2^14 + E12*2^13 + F12*2^12 + G12*2^11 + H12*2^10 + I12*2^9 + J12*2^8 + K12*2^7 + L12*2^6 + M12*2^5 + N12*2^4 + O12 * 2 ^ 3 + P12  * 2^2 + Q12 * 2 + R12)</f>
+        <v>B44</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
-      </c>
-      <c r="U12" t="s">
-        <v>110</v>
+        <v>58</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="V12">
-        <v>0.260498046875</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>95</v>
+        <v>0.1666259765625</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1460,21 +1329,21 @@
         <v>1A01</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="V13">
-        <v>0.40966796875</v>
+        <v>0.260498046875</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1529,21 +1398,21 @@
         <v>1A01</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="V14">
-        <v>0.64208984375</v>
+        <v>0.40966796875</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1561,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1588,31 +1457,31 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1D02</v>
+        <v>1A01</v>
       </c>
       <c r="T15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="V15">
-        <v>0.9287109375</v>
+        <v>0.64208984375</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1624,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1642,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1654,25 +1523,34 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>D44</v>
+        <v>1D02</v>
+      </c>
+      <c r="T16" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" t="s">
+        <v>81</v>
+      </c>
+      <c r="V16">
+        <v>0.9287109375</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1690,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1724,21 +1602,15 @@
       </c>
       <c r="S17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>B44</v>
-      </c>
-      <c r="T17" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" t="s">
-        <v>101</v>
+        <v>D44</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1750,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1762,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1780,163 +1652,163 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1A01</v>
+        <v>B44</v>
       </c>
       <c r="T18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U18" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3" t="str">
+        <f>DEC2HEX(C19*2^15 + D19*2^14 + E19*2^13 + F19*2^12 + G19*2^11 + H19*2^10 + I19*2^9 + J19*2^8 + K19*2^7 + L19*2^6 + M19*2^5 + N19*2^4 + O19 * 2 ^ 3 + P19  * 2^2 + Q19 * 2 + R19)</f>
+        <v>1A01</v>
+      </c>
+      <c r="T19" t="s">
         <v>59</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3" t="str">
-        <f t="shared" ref="S19:S23" si="2">DEC2HEX(C19*2^15 + D19*2^14 + E19*2^13 + F19*2^12 + G19*2^11 + H19*2^10 + I19*2^9 + J19*2^8 + K19*2^7 + L19*2^6 + M19*2^5 + N19*2^4 + O19 * 2 ^ 3 + P19  * 2^2 + Q19 * 2 + R19)</f>
-        <v>1A01</v>
-      </c>
-      <c r="T19" t="s">
-        <v>64</v>
-      </c>
       <c r="U19" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3" t="str">
+        <f t="shared" ref="S20:S24" si="2">DEC2HEX(C20*2^15 + D20*2^14 + E20*2^13 + F20*2^12 + G20*2^11 + H20*2^10 + I20*2^9 + J20*2^8 + K20*2^7 + L20*2^6 + M20*2^5 + N20*2^4 + O20 * 2 ^ 3 + P20  * 2^2 + Q20 * 2 + R20)</f>
+        <v>1A01</v>
+      </c>
+      <c r="T20" t="s">
         <v>59</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>1A01</v>
-      </c>
-      <c r="T20" t="s">
-        <v>64</v>
-      </c>
       <c r="U20" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1991,18 +1863,18 @@
         <v>1A01</v>
       </c>
       <c r="T21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2057,18 +1929,18 @@
         <v>1A01</v>
       </c>
       <c r="T22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2086,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2113,31 +1985,28 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1C02</v>
+        <v>1A01</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>114</v>
-      </c>
-      <c r="V23">
-        <v>1.0045248600000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2149,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2161,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2179,55 +2048,64 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" s="3" t="str">
-        <f>DEC2HEX(C24*2^15 + D24*2^14 + E24*2^13 + F24*2^12 + G24*2^11 + H24*2^10 + I24*2^9 + J24*2^8 + K24*2^7 + L24*2^6 + M24*2^5 + N24*2^4 + O24 * 2 ^ 3 + P24  * 2^2 + Q24 * 2 + R24)</f>
-        <v>D44</v>
+        <f t="shared" si="2"/>
+        <v>1C02</v>
+      </c>
+      <c r="T24" t="s">
+        <v>53</v>
+      </c>
+      <c r="U24" t="s">
+        <v>82</v>
+      </c>
+      <c r="V24">
+        <v>1.0045248600000001</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2239,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2249,479 +2127,360 @@
       </c>
       <c r="S25" s="3" t="str">
         <f>DEC2HEX(C25*2^15 + D25*2^14 + E25*2^13 + F25*2^12 + G25*2^11 + H25*2^10 + I25*2^9 + J25*2^8 + K25*2^7 + L25*2^6 + M25*2^5 + N25*2^4 + O25 * 2 ^ 3 + P25  * 2^2 + Q25 * 2 + R25)</f>
-        <v>7000</v>
+        <v>D44</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="S26" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="str">
+        <f>DEC2HEX(C26*2^15 + D26*2^14 + E26*2^13 + F26*2^12 + G26*2^11 + H26*2^10 + I26*2^9 + J26*2^8 + K26*2^7 + L26*2^6 + M26*2^5 + N26*2^4 + O26 * 2 ^ 3 + P26  * 2^2 + Q26 * 2 + R26)</f>
+        <v>7000</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
+      <c r="A28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="S29" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="str">
+        <f>DEC2HEX(C29*2^15 + D29*2^14 + E29*2^13 + F29*2^12 + G29*2^11 + H29*2^10 + I29*2^9 + J29*2^8 + K29*2^7 + L29*2^6 + M29*2^5 + N29*2^4 + O29 * 2 ^ 3 + P29  * 2^2 + Q29 * 2 + R29)</f>
+        <v>3A48</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3" t="str">
+        <f>DEC2HEX(C30*2^15 + D30*2^14 + E30*2^13 + F30*2^12 + G30*2^11 + H30*2^10 + I30*2^9 + J30*2^8 + K30*2^7 + L30*2^6 + M30*2^5 + N30*2^4 + O30 * 2 ^ 3 + P30  * 2^2 + Q30 * 2 + R30)</f>
+        <v>3155</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="S31" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="T31" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="S32" s="3"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="str">
+        <f>DEC2HEX(C32*2^15 + D32*2^14 + E32*2^13 + F32*2^12 + G32*2^11 + H32*2^10 + I32*2^9 + J32*2^8 + K32*2^7 + L32*2^6 + M32*2^5 + N32*2^4 + O32 * 2 ^ 3 + P32  * 2^2 + Q32 * 2 + R32)</f>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="S33" s="3"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T33" t="s">
+        <v>83</v>
+      </c>
+      <c r="U33" t="s">
+        <v>84</v>
+      </c>
+      <c r="V33">
+        <v>0.70650000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7">
-        <v>1</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <v>1</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="3" t="str">
-        <f>DEC2HEX(C40*2^15 + D40*2^14 + E40*2^13 + F40*2^12 + G40*2^11 + H40*2^10 + I40*2^9 + J40*2^8 + K40*2^7 + L40*2^6 + M40*2^5 + N40*2^4 + O40 * 2 ^ 3 + P40  * 2^2 + Q40 * 2 + R40)</f>
-        <v>3A48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
-        <v>1</v>
-      </c>
-      <c r="K41" s="7">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7">
-        <v>1</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>1</v>
-      </c>
-      <c r="S41" s="3" t="str">
-        <f>DEC2HEX(C41*2^15 + D41*2^14 + E41*2^13 + F41*2^12 + G41*2^11 + H41*2^10 + I41*2^9 + J41*2^8 + K41*2^7 + L41*2^6 + M41*2^5 + N41*2^4 + O41 * 2 ^ 3 + P41  * 2^2 + Q41 * 2 + R41)</f>
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="T42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7">
-        <v>1</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="str">
-        <f>DEC2HEX(C43*2^15 + D43*2^14 + E43*2^13 + F43*2^12 + G43*2^11 + H43*2^10 + I43*2^9 + J43*2^8 + K43*2^7 + L43*2^6 + M43*2^5 + N43*2^4 + O43 * 2 ^ 3 + P43  * 2^2 + Q43 * 2 + R43)</f>
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>1</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>1</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
-        <v>1</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
-        <v>1</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="T46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S36" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="K6:P6"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
